--- a/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind_offshore.xlsx
+++ b/Clustering/Output_Clusters_Asigned_To_Countries/ward_10_af_df_wind_offshore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,10 +472,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.08186397984886642</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1757812500000002</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.1813602015113354</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.04316546762589927</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1386138613861386</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -558,19 +558,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04386750223813789</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.03568827385287685</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02473958333333333</v>
+        <v>0.1508838383838407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1193210184722923</v>
+        <v>0.0239294710327456</v>
       </c>
       <c r="D5" t="n">
         <v>0.1532476319350461</v>
@@ -604,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05859375000000003</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.05667506297229215</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.01798561151079137</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.08368200836820086</v>
       </c>
     </row>
     <row r="8">
@@ -694,25 +694,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.1319444444444462</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3002163421534301</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.6691729323308216</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.2805755395683454</v>
       </c>
       <c r="H8" t="n">
-        <v>0.633663366336634</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.08368200836820086</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07246376811594198</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.02825278810408923</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1598030438675023</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.183175528040786</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1714975845410629</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -860,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.02549162418062634</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.002604166666666667</v>
+        <v>0.01809764309764311</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01431186553503077</v>
+        <v>0.002518891687657431</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.01599326599326602</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01264769512398069</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.1870771312584556</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.9375</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9375</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02551477170993735</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.02075746540422432</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -990,31 +990,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.07031250000000001</v>
+        <v>0.04966329966329953</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0392744217007823</v>
+        <v>0.06801007556675058</v>
       </c>
       <c r="D16" t="n">
         <v>0.01285520974289581</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03623188405797101</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03076923076923077</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01115241635687733</v>
       </c>
       <c r="I16" t="n">
-        <v>0.03804834377797674</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.03095411507647482</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01171875</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01133501259445844</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01690821256038647</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0007434944237918215</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.002184996358339403</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.06119791666666671</v>
+        <v>0.02609427609427607</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02063571309702115</v>
+        <v>0.05919395465994958</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.006427604871447904</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05338541666666669</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.0516372795969773</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03255208333333332</v>
+        <v>0.0117845117845118</v>
       </c>
       <c r="C21" t="n">
-        <v>0.009319354301880514</v>
+        <v>0.03148614609571789</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01538461538461539</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1230,13 +1230,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.02156133828996283</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.03168244719592129</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3294270833333329</v>
+        <v>0.002946127946127945</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002329838575470128</v>
+        <v>0.3186397984886651</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.0827338129496403</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2277227722772278</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02415458937198068</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001342882721575649</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.004734158776402039</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.07161458333333334</v>
+        <v>0.01136363636363637</v>
       </c>
       <c r="C32" t="n">
-        <v>0.008986520219670497</v>
+        <v>0.06926952141057929</v>
       </c>
       <c r="D32" t="n">
         <v>0.08085250338294976</v>
@@ -1594,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9384615384615369</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.2194244604316549</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1190689346463743</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.09686817188638054</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6787439613526594</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1637,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.1613382899628248</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1495076096687557</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.1449380917698474</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00390625</v>
+        <v>0.0006313131313131313</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0004992511233150275</v>
+        <v>0.003778337531486146</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1720,191 +1720,6 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Spain / France</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.0003328340822100183</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area United Kingdom / Denmark (Faeroe Islands)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.006427604871447904</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Italy / France</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Sweden / Norway</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0001664170411050092</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Joint regime area Croatia / Slovenia</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
         <v>0</v>
       </c>
     </row>
